--- a/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
+++ b/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>002621</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>中欧消费主题股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>51.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002621</t>
+          <t>000480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧消费主题股票A</t>
+          <t>东方红新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000480</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红新动力灵活配置混合</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6151</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>东方红京东大数据灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003886</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合A</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003887</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合C</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519956</t>
+          <t>003886</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合C</t>
+          <t>汇安丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>37.07</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519957</t>
+          <t>003887</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合A</t>
+          <t>汇安丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>37.07</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>92.76</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003886</t>
+          <t>000480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合A</t>
+          <t>东方红新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003887</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合C</t>
+          <t>东方红京东大数据灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007040</t>
+          <t>003886</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隆灵活配置混合C</t>
+          <t>汇安丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002305</t>
+          <t>004119</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信风格轮动混合A</t>
+          <t>广发创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007499</t>
+          <t>003887</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信风格轮动混合C</t>
+          <t>汇安丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000480</t>
+          <t>008705</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红新动力灵活配置混合</t>
+          <t>广发高股息优享混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>88.32</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>002772</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>光大保德信产业新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.48</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>002305</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>光大保德信风格轮动混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>007499</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>光大保德信风格轮动混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002772</t>
+          <t>007040</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>85.61</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
+++ b/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1402,7 +1403,6 @@
           <t>新疆前海联合泳隆灵活配置混合C</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>87.00</t>
@@ -1418,6 +1418,1392 @@
       </c>
       <c r="H13" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6715</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5779</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
+++ b/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2809,4 +2810,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
+++ b/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3626,4 +3627,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
+++ b/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3635,7 +3636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3646,17 +3647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3666,14 +3687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.41</v>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3682,14 +3725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.85</v>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1704</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3698,14 +3763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.61</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5809</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3714,13 +3801,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
+++ b/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4414,7 +4415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4425,17 +4426,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4445,14 +4466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.52</v>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4461,14 +4504,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.41</v>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4477,14 +4542,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.85</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4808</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4493,14 +4580,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.61</v>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4509,13 +4618,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
+++ b/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4889,7 +4890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4900,17 +4901,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4920,14 +4941,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.68</v>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4936,14 +4979,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.52</v>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4952,14 +5017,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.41</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4968,14 +5055,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.85</v>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4984,14 +5093,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.61</v>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5000,13 +5131,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
+++ b/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>4.95</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>4.68</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>5.52</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>5.41</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>7.85</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>2.61</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.77</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5360</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4869</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +3006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3065,7 +3822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4451,7 +5208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4956,7 +5713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
+++ b/数据整理/stocks/A股/上证主板/600060-海信视像.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>4.9</v>
+        <v>22.91</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>4.95</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>4.68</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>5.52</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>5.41</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>7.85</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>2.61</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.77</v>
       </c>
     </row>
@@ -616,7 +633,3527 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6151</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7521</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1411</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8131</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6515</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5917</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5764</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定开混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016570</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015160</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015161</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方宝嘉混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>017493</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>016571</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>016130</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014556</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016131</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>017167</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014557</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>017535</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016168</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>017536</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方红优享红利混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +4893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1754,7 +5291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2228,7 +5765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3006,7 +6543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3822,7 +7359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5208,7 +8745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5711,478 +9248,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>51.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9400</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000480</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1018</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6211</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6151</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001564</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红京东大数据灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4654</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519957</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>37.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3154</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519956</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长信睿进灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>37.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3025</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1473</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1154</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1121</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005632</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>